--- a/pythonseleniumProject1/Learning Python/RajDeshmukh_DailyUpdates.xlsx
+++ b/pythonseleniumProject1/Learning Python/RajDeshmukh_DailyUpdates.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -849,6 +849,70 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25-01-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Selenium</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>26-01-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Selenium</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
